--- a/output/599060e9-8b46-46ec-87b9-c79cde8a82b7/599060e9-8b46-46ec-87b9-c79cde8a82b7_notes_transformed_standard_cropped_df.xlsx
+++ b/output/599060e9-8b46-46ec-87b9-c79cde8a82b7/599060e9-8b46-46ec-87b9-c79cde8a82b7_notes_transformed_standard_cropped_df.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="106">
   <si>
     <t>rows</t>
   </si>
@@ -55,12 +55,6 @@
     <t>$000</t>
   </si>
   <si>
-    <t>19589</t>
-  </si>
-  <si>
-    <t>28259</t>
-  </si>
-  <si>
     <t xml:space="preserve"> GST receivable</t>
   </si>
   <si>
@@ -70,48 +64,12 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>1697</t>
-  </si>
-  <si>
-    <t>11927</t>
-  </si>
-  <si>
-    <t>13624</t>
-  </si>
-  <si>
-    <t>1390</t>
-  </si>
-  <si>
-    <t>10609</t>
-  </si>
-  <si>
-    <t>11999</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Raw materials</t>
   </si>
   <si>
     <t xml:space="preserve"> Finished goods</t>
   </si>
   <si>
-    <t>18547</t>
-  </si>
-  <si>
-    <t>8651</t>
-  </si>
-  <si>
-    <t>27198</t>
-  </si>
-  <si>
-    <t>19816</t>
-  </si>
-  <si>
-    <t>7137</t>
-  </si>
-  <si>
-    <t>26953</t>
-  </si>
-  <si>
     <t>Current Current</t>
   </si>
   <si>
@@ -130,18 +88,6 @@
     <t>Non-current Electricity derivatives at fair value</t>
   </si>
   <si>
-    <t>51</t>
-  </si>
-  <si>
-    <t>29702</t>
-  </si>
-  <si>
-    <t>29753</t>
-  </si>
-  <si>
-    <t>12453</t>
-  </si>
-  <si>
     <t xml:space="preserve">Southern Cross Southern Cross </t>
   </si>
   <si>
@@ -154,15 +100,6 @@
     <t>Ownership interest $000</t>
   </si>
   <si>
-    <t>52.95%</t>
-  </si>
-  <si>
-    <t>47672</t>
-  </si>
-  <si>
-    <t>54535</t>
-  </si>
-  <si>
     <t xml:space="preserve"> At 1 January</t>
   </si>
   <si>
@@ -175,21 +112,6 @@
     <t xml:space="preserve"> Carrying value of investment at end of year</t>
   </si>
   <si>
-    <t>1586</t>
-  </si>
-  <si>
-    <t>(8,448)</t>
-  </si>
-  <si>
-    <t>59249</t>
-  </si>
-  <si>
-    <t>(7,587)</t>
-  </si>
-  <si>
-    <t>2873</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Investment in joint venture (Southern Cross Aluminium Pty Ltd)</t>
   </si>
   <si>
@@ -253,150 +175,9 @@
     <t>Total $000</t>
   </si>
   <si>
-    <t>90430</t>
-  </si>
-  <si>
-    <t>376</t>
-  </si>
-  <si>
-    <t>(149)</t>
-  </si>
-  <si>
-    <t>74</t>
-  </si>
-  <si>
-    <t>90731</t>
-  </si>
-  <si>
-    <t>90235</t>
-  </si>
-  <si>
-    <t>57</t>
-  </si>
-  <si>
-    <t>351</t>
-  </si>
-  <si>
-    <t>(154)</t>
-  </si>
-  <si>
-    <t>90489</t>
-  </si>
-  <si>
-    <t>242</t>
-  </si>
-  <si>
-    <t>195</t>
-  </si>
-  <si>
-    <t>314181</t>
-  </si>
-  <si>
-    <t>5232</t>
-  </si>
-  <si>
-    <t>(1,122)</t>
-  </si>
-  <si>
-    <t>(74)</t>
-  </si>
-  <si>
-    <t>318217</t>
-  </si>
-  <si>
-    <t>312388</t>
-  </si>
-  <si>
-    <t>827</t>
-  </si>
-  <si>
-    <t>4618</t>
-  </si>
-  <si>
-    <t>(1,182)</t>
-  </si>
-  <si>
-    <t>316651</t>
-  </si>
-  <si>
-    <t>1566</t>
-  </si>
-  <si>
-    <t>1793</t>
-  </si>
-  <si>
-    <t>1628</t>
-  </si>
-  <si>
-    <t>34643</t>
-  </si>
-  <si>
-    <t>36271</t>
-  </si>
-  <si>
-    <t>20598</t>
-  </si>
-  <si>
-    <t>22226</t>
-  </si>
-  <si>
-    <t>14045</t>
-  </si>
-  <si>
-    <t>1743</t>
-  </si>
-  <si>
-    <t>2538</t>
-  </si>
-  <si>
-    <t>(65)</t>
-  </si>
-  <si>
-    <t>2473</t>
-  </si>
-  <si>
-    <t>795</t>
-  </si>
-  <si>
-    <t>1678</t>
-  </si>
-  <si>
-    <t>408777</t>
-  </si>
-  <si>
-    <t>40251</t>
-  </si>
-  <si>
-    <t>(1,336)</t>
-  </si>
-  <si>
-    <t>447692</t>
-  </si>
-  <si>
-    <t>405046</t>
-  </si>
-  <si>
-    <t>884</t>
-  </si>
-  <si>
-    <t>25567</t>
-  </si>
-  <si>
-    <t>430161</t>
-  </si>
-  <si>
-    <t>17531</t>
-  </si>
-  <si>
-    <t>3731</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Bank borrowings</t>
   </si>
   <si>
-    <t>4000</t>
-  </si>
-  <si>
     <t xml:space="preserve"> facilities facilities</t>
   </si>
   <si>
@@ -415,24 +196,6 @@
     <t>Bank guarantee facilities $000</t>
   </si>
   <si>
-    <t>52100</t>
-  </si>
-  <si>
-    <t>3273</t>
-  </si>
-  <si>
-    <t>48827</t>
-  </si>
-  <si>
-    <t>13500</t>
-  </si>
-  <si>
-    <t>1023</t>
-  </si>
-  <si>
-    <t>47077</t>
-  </si>
-  <si>
     <t xml:space="preserve"> At 1 January 2020</t>
   </si>
   <si>
@@ -469,84 +232,6 @@
     <t>Totals</t>
   </si>
   <si>
-    <t>4343</t>
-  </si>
-  <si>
-    <t>541</t>
-  </si>
-  <si>
-    <t>4884</t>
-  </si>
-  <si>
-    <t>4846</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>3725</t>
-  </si>
-  <si>
-    <t>159</t>
-  </si>
-  <si>
-    <t>3884</t>
-  </si>
-  <si>
-    <t>865</t>
-  </si>
-  <si>
-    <t>(518)</t>
-  </si>
-  <si>
-    <t>347</t>
-  </si>
-  <si>
-    <t>4806</t>
-  </si>
-  <si>
-    <t>36032</t>
-  </si>
-  <si>
-    <t>(336)</t>
-  </si>
-  <si>
-    <t>40502</t>
-  </si>
-  <si>
-    <t>6983</t>
-  </si>
-  <si>
-    <t>1286</t>
-  </si>
-  <si>
-    <t>8269</t>
-  </si>
-  <si>
-    <t>729</t>
-  </si>
-  <si>
-    <t>7540</t>
-  </si>
-  <si>
-    <t>19857</t>
-  </si>
-  <si>
-    <t>38883</t>
-  </si>
-  <si>
-    <t>(854)</t>
-  </si>
-  <si>
-    <t>57886</t>
-  </si>
-  <si>
-    <t>9459</t>
-  </si>
-  <si>
-    <t>48427</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Trade and other payables</t>
   </si>
   <si>
@@ -556,30 +241,9 @@
     <t xml:space="preserve"> Lease liabilities</t>
   </si>
   <si>
-    <t>25569</t>
-  </si>
-  <si>
-    <t>2935</t>
-  </si>
-  <si>
-    <t>1053</t>
-  </si>
-  <si>
-    <t>29557</t>
-  </si>
-  <si>
-    <t>25662</t>
-  </si>
-  <si>
-    <t>3895</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 155,299,534 ordinary shares issued and fully paid (2019: 155,299,534)</t>
   </si>
   <si>
-    <t>150997</t>
-  </si>
-  <si>
     <t>Cash flow hedge reserve Cash flow hedge reserve</t>
   </si>
   <si>
@@ -634,54 +298,6 @@
     <t>Total Balance at 31 December</t>
   </si>
   <si>
-    <t>29543</t>
-  </si>
-  <si>
-    <t>(31,598)</t>
-  </si>
-  <si>
-    <t>(2,055)</t>
-  </si>
-  <si>
-    <t>2020</t>
-  </si>
-  <si>
-    <t>5922</t>
-  </si>
-  <si>
-    <t>(2,526)</t>
-  </si>
-  <si>
-    <t>325</t>
-  </si>
-  <si>
-    <t>35790</t>
-  </si>
-  <si>
-    <t>(40,046)</t>
-  </si>
-  <si>
-    <t>(4,256)</t>
-  </si>
-  <si>
-    <t>41448</t>
-  </si>
-  <si>
-    <t>(11,905)</t>
-  </si>
-  <si>
-    <t>2019</t>
-  </si>
-  <si>
-    <t>3049</t>
-  </si>
-  <si>
-    <t>44822</t>
-  </si>
-  <si>
-    <t>(9,032)</t>
-  </si>
-  <si>
     <t>Type of goods Type of goods</t>
   </si>
   <si>
@@ -712,33 +328,9 @@
     <t>Timing of revenue recognition Total revenue from contracts with customers</t>
   </si>
   <si>
-    <t>214911</t>
-  </si>
-  <si>
-    <t>190814</t>
-  </si>
-  <si>
-    <t>24097</t>
-  </si>
-  <si>
-    <t>229785</t>
-  </si>
-  <si>
-    <t>197789</t>
-  </si>
-  <si>
-    <t>31996</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Commission revenue</t>
   </si>
   <si>
-    <t>775</t>
-  </si>
-  <si>
-    <t>780</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Government grants</t>
   </si>
   <si>
@@ -751,58 +343,13 @@
     <t xml:space="preserve"> Other</t>
   </si>
   <si>
-    <t>13054</t>
-  </si>
-  <si>
-    <t>577</t>
-  </si>
-  <si>
-    <t>13631</t>
-  </si>
-  <si>
-    <t>5350</t>
-  </si>
-  <si>
-    <t>4202</t>
-  </si>
-  <si>
-    <t>95</t>
-  </si>
-  <si>
-    <t>497</t>
-  </si>
-  <si>
-    <t>10144</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Bank interest</t>
   </si>
   <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>170</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Interest expenses</t>
   </si>
   <si>
     <t xml:space="preserve"> Discount unwind on the provision for asset retirement obligation</t>
-  </si>
-  <si>
-    <t>(203)</t>
-  </si>
-  <si>
-    <t>(539)</t>
-  </si>
-  <si>
-    <t>(303)</t>
-  </si>
-  <si>
-    <t>(315)</t>
-  </si>
-  <si>
-    <t>(618)</t>
   </si>
 </sst>
 </file>
@@ -1190,8 +737,8 @@
       <c r="C2">
         <v>2020</v>
       </c>
-      <c r="D2" t="s">
-        <v>7</v>
+      <c r="D2">
+        <v>19589</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1204,6 +751,9 @@
       <c r="C3">
         <v>2020</v>
       </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
@@ -1215,8 +765,8 @@
       <c r="C4">
         <v>2019</v>
       </c>
-      <c r="D4" t="s">
-        <v>8</v>
+      <c r="D4">
+        <v>28259</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1228,6 +778,9 @@
       </c>
       <c r="C5">
         <v>2019</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1259,211 +812,226 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>121</v>
+        <v>48</v>
       </c>
       <c r="B2" t="s">
-        <v>125</v>
+        <v>52</v>
       </c>
       <c r="C2">
         <v>2020</v>
       </c>
-      <c r="D2" t="s">
-        <v>127</v>
+      <c r="D2">
+        <v>52100</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>122</v>
+        <v>49</v>
       </c>
       <c r="B3" t="s">
-        <v>125</v>
+        <v>52</v>
       </c>
       <c r="C3">
         <v>2020</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>123</v>
+        <v>50</v>
       </c>
       <c r="B4" t="s">
-        <v>125</v>
+        <v>52</v>
       </c>
       <c r="C4">
         <v>2020</v>
       </c>
-      <c r="D4" t="s">
-        <v>128</v>
+      <c r="D4">
+        <v>3273</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>124</v>
+        <v>51</v>
       </c>
       <c r="B5" t="s">
-        <v>125</v>
+        <v>52</v>
       </c>
       <c r="C5">
         <v>2020</v>
       </c>
-      <c r="D5" t="s">
-        <v>129</v>
+      <c r="D5">
+        <v>48827</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>121</v>
+        <v>48</v>
       </c>
       <c r="B6" t="s">
-        <v>126</v>
+        <v>53</v>
       </c>
       <c r="C6">
         <v>2020</v>
       </c>
-      <c r="D6" t="s">
-        <v>130</v>
+      <c r="D6">
+        <v>13500</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>122</v>
+        <v>49</v>
       </c>
       <c r="B7" t="s">
-        <v>126</v>
+        <v>53</v>
       </c>
       <c r="C7">
         <v>2020</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>123</v>
+        <v>50</v>
       </c>
       <c r="B8" t="s">
-        <v>126</v>
+        <v>53</v>
       </c>
       <c r="C8">
         <v>2020</v>
       </c>
-      <c r="D8" t="s">
-        <v>130</v>
+      <c r="D8">
+        <v>13500</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>124</v>
+        <v>51</v>
       </c>
       <c r="B9" t="s">
-        <v>126</v>
+        <v>53</v>
       </c>
       <c r="C9">
         <v>2020</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>121</v>
+        <v>48</v>
       </c>
       <c r="B10" t="s">
-        <v>125</v>
+        <v>52</v>
       </c>
       <c r="C10">
         <v>2019</v>
       </c>
-      <c r="D10" t="s">
-        <v>127</v>
+      <c r="D10">
+        <v>52100</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>122</v>
+        <v>49</v>
       </c>
       <c r="B11" t="s">
-        <v>125</v>
+        <v>52</v>
       </c>
       <c r="C11">
         <v>2019</v>
       </c>
-      <c r="D11" t="s">
-        <v>120</v>
+      <c r="D11">
+        <v>4000</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>123</v>
+        <v>50</v>
       </c>
       <c r="B12" t="s">
-        <v>125</v>
+        <v>52</v>
       </c>
       <c r="C12">
         <v>2019</v>
       </c>
-      <c r="D12" t="s">
-        <v>131</v>
+      <c r="D12">
+        <v>1023</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>124</v>
+        <v>51</v>
       </c>
       <c r="B13" t="s">
-        <v>125</v>
+        <v>52</v>
       </c>
       <c r="C13">
         <v>2019</v>
       </c>
-      <c r="D13" t="s">
-        <v>132</v>
+      <c r="D13">
+        <v>47077</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>121</v>
+        <v>48</v>
       </c>
       <c r="B14" t="s">
-        <v>126</v>
+        <v>53</v>
       </c>
       <c r="C14">
         <v>2019</v>
       </c>
-      <c r="D14" t="s">
-        <v>130</v>
+      <c r="D14">
+        <v>13500</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>122</v>
+        <v>49</v>
       </c>
       <c r="B15" t="s">
-        <v>126</v>
+        <v>53</v>
       </c>
       <c r="C15">
         <v>2019</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>123</v>
+        <v>50</v>
       </c>
       <c r="B16" t="s">
-        <v>126</v>
+        <v>53</v>
       </c>
       <c r="C16">
         <v>2019</v>
       </c>
-      <c r="D16" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="D16">
+        <v>13500</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>124</v>
+        <v>51</v>
       </c>
       <c r="B17" t="s">
-        <v>126</v>
+        <v>53</v>
       </c>
       <c r="C17">
         <v>2019</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1495,485 +1063,506 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>133</v>
+        <v>54</v>
       </c>
       <c r="B2" t="s">
-        <v>139</v>
+        <v>60</v>
       </c>
       <c r="C2">
         <v>2020</v>
       </c>
-      <c r="D2" t="s">
-        <v>145</v>
+      <c r="D2">
+        <v>4343</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>134</v>
+        <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>139</v>
+        <v>60</v>
       </c>
       <c r="C3">
         <v>2020</v>
       </c>
-      <c r="D3" t="s">
-        <v>146</v>
+      <c r="D3">
+        <v>541</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>135</v>
+        <v>56</v>
       </c>
       <c r="B4" t="s">
-        <v>139</v>
+        <v>60</v>
       </c>
       <c r="C4">
         <v>2020</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>136</v>
+        <v>57</v>
       </c>
       <c r="B5" t="s">
-        <v>139</v>
+        <v>60</v>
       </c>
       <c r="C5">
         <v>2020</v>
       </c>
-      <c r="D5" t="s">
-        <v>147</v>
+      <c r="D5">
+        <v>4884</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>137</v>
+        <v>58</v>
       </c>
       <c r="B6" t="s">
-        <v>139</v>
+        <v>60</v>
       </c>
       <c r="C6">
         <v>2020</v>
       </c>
-      <c r="D6" t="s">
-        <v>148</v>
+      <c r="D6">
+        <v>4846</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>138</v>
+        <v>59</v>
       </c>
       <c r="B7" t="s">
-        <v>139</v>
+        <v>60</v>
       </c>
       <c r="C7">
         <v>2020</v>
       </c>
-      <c r="D7" t="s">
-        <v>149</v>
+      <c r="D7">
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>133</v>
+        <v>54</v>
       </c>
       <c r="B8" t="s">
-        <v>140</v>
+        <v>61</v>
       </c>
       <c r="C8">
         <v>2020</v>
       </c>
-      <c r="D8" t="s">
-        <v>150</v>
+      <c r="D8">
+        <v>3725</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>134</v>
+        <v>55</v>
       </c>
       <c r="B9" t="s">
-        <v>140</v>
+        <v>61</v>
       </c>
       <c r="C9">
         <v>2020</v>
       </c>
-      <c r="D9" t="s">
-        <v>151</v>
+      <c r="D9">
+        <v>159</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>135</v>
+        <v>56</v>
       </c>
       <c r="B10" t="s">
-        <v>140</v>
+        <v>61</v>
       </c>
       <c r="C10">
         <v>2020</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>136</v>
+        <v>57</v>
       </c>
       <c r="B11" t="s">
-        <v>140</v>
+        <v>61</v>
       </c>
       <c r="C11">
         <v>2020</v>
       </c>
-      <c r="D11" t="s">
-        <v>152</v>
+      <c r="D11">
+        <v>3884</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>137</v>
+        <v>58</v>
       </c>
       <c r="B12" t="s">
-        <v>140</v>
+        <v>61</v>
       </c>
       <c r="C12">
         <v>2020</v>
       </c>
-      <c r="D12" t="s">
-        <v>152</v>
+      <c r="D12">
+        <v>3884</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>138</v>
+        <v>59</v>
       </c>
       <c r="B13" t="s">
-        <v>140</v>
+        <v>61</v>
       </c>
       <c r="C13">
         <v>2020</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>133</v>
+        <v>54</v>
       </c>
       <c r="B14" t="s">
-        <v>141</v>
+        <v>62</v>
       </c>
       <c r="C14">
         <v>2020</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>134</v>
+        <v>55</v>
       </c>
       <c r="B15" t="s">
-        <v>141</v>
+        <v>62</v>
       </c>
       <c r="C15">
         <v>2020</v>
       </c>
-      <c r="D15" t="s">
-        <v>153</v>
+      <c r="D15">
+        <v>865</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>135</v>
+        <v>56</v>
       </c>
       <c r="B16" t="s">
-        <v>141</v>
+        <v>62</v>
       </c>
       <c r="C16">
         <v>2020</v>
       </c>
-      <c r="D16" t="s">
-        <v>154</v>
+      <c r="D16">
+        <v>-518</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>136</v>
+        <v>57</v>
       </c>
       <c r="B17" t="s">
-        <v>141</v>
+        <v>62</v>
       </c>
       <c r="C17">
         <v>2020</v>
       </c>
-      <c r="D17" t="s">
-        <v>155</v>
+      <c r="D17">
+        <v>347</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>137</v>
+        <v>58</v>
       </c>
       <c r="B18" t="s">
-        <v>141</v>
+        <v>62</v>
       </c>
       <c r="C18">
         <v>2020</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>138</v>
+        <v>59</v>
       </c>
       <c r="B19" t="s">
-        <v>141</v>
+        <v>62</v>
       </c>
       <c r="C19">
         <v>2020</v>
       </c>
-      <c r="D19" t="s">
-        <v>155</v>
+      <c r="D19">
+        <v>347</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>133</v>
+        <v>54</v>
       </c>
       <c r="B20" t="s">
-        <v>142</v>
+        <v>63</v>
       </c>
       <c r="C20">
         <v>2020</v>
       </c>
-      <c r="D20" t="s">
-        <v>156</v>
+      <c r="D20">
+        <v>4806</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>134</v>
+        <v>55</v>
       </c>
       <c r="B21" t="s">
-        <v>142</v>
+        <v>63</v>
       </c>
       <c r="C21">
         <v>2020</v>
       </c>
-      <c r="D21" t="s">
-        <v>157</v>
+      <c r="D21">
+        <v>36032</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>135</v>
+        <v>56</v>
       </c>
       <c r="B22" t="s">
-        <v>142</v>
+        <v>63</v>
       </c>
       <c r="C22">
         <v>2020</v>
       </c>
-      <c r="D22" t="s">
-        <v>158</v>
+      <c r="D22">
+        <v>-336</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>136</v>
+        <v>57</v>
       </c>
       <c r="B23" t="s">
-        <v>142</v>
+        <v>63</v>
       </c>
       <c r="C23">
         <v>2020</v>
       </c>
-      <c r="D23" t="s">
-        <v>159</v>
+      <c r="D23">
+        <v>40502</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>137</v>
+        <v>58</v>
       </c>
       <c r="B24" t="s">
-        <v>142</v>
+        <v>63</v>
       </c>
       <c r="C24">
         <v>2020</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>138</v>
+        <v>59</v>
       </c>
       <c r="B25" t="s">
-        <v>142</v>
+        <v>63</v>
       </c>
       <c r="C25">
         <v>2020</v>
       </c>
-      <c r="D25" t="s">
-        <v>159</v>
+      <c r="D25">
+        <v>40502</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>133</v>
+        <v>54</v>
       </c>
       <c r="B26" t="s">
-        <v>143</v>
+        <v>64</v>
       </c>
       <c r="C26">
         <v>2020</v>
       </c>
-      <c r="D26" t="s">
-        <v>160</v>
+      <c r="D26">
+        <v>6983</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>134</v>
+        <v>55</v>
       </c>
       <c r="B27" t="s">
-        <v>143</v>
+        <v>64</v>
       </c>
       <c r="C27">
         <v>2020</v>
       </c>
-      <c r="D27" t="s">
-        <v>161</v>
+      <c r="D27">
+        <v>1286</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>135</v>
+        <v>56</v>
       </c>
       <c r="B28" t="s">
-        <v>143</v>
+        <v>64</v>
       </c>
       <c r="C28">
         <v>2020</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>136</v>
+        <v>57</v>
       </c>
       <c r="B29" t="s">
-        <v>143</v>
+        <v>64</v>
       </c>
       <c r="C29">
         <v>2020</v>
       </c>
-      <c r="D29" t="s">
-        <v>162</v>
+      <c r="D29">
+        <v>8269</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>137</v>
+        <v>58</v>
       </c>
       <c r="B30" t="s">
-        <v>143</v>
+        <v>64</v>
       </c>
       <c r="C30">
         <v>2020</v>
       </c>
-      <c r="D30" t="s">
-        <v>163</v>
+      <c r="D30">
+        <v>729</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>138</v>
+        <v>59</v>
       </c>
       <c r="B31" t="s">
-        <v>143</v>
+        <v>64</v>
       </c>
       <c r="C31">
         <v>2020</v>
       </c>
-      <c r="D31" t="s">
-        <v>164</v>
+      <c r="D31">
+        <v>7540</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>133</v>
+        <v>54</v>
       </c>
       <c r="B32" t="s">
-        <v>144</v>
+        <v>65</v>
       </c>
       <c r="C32">
         <v>2020</v>
       </c>
-      <c r="D32" t="s">
-        <v>165</v>
+      <c r="D32">
+        <v>19857</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>134</v>
+        <v>55</v>
       </c>
       <c r="B33" t="s">
-        <v>144</v>
+        <v>65</v>
       </c>
       <c r="C33">
         <v>2020</v>
       </c>
-      <c r="D33" t="s">
-        <v>166</v>
+      <c r="D33">
+        <v>38883</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>135</v>
+        <v>56</v>
       </c>
       <c r="B34" t="s">
-        <v>144</v>
+        <v>65</v>
       </c>
       <c r="C34">
         <v>2020</v>
       </c>
-      <c r="D34" t="s">
-        <v>167</v>
+      <c r="D34">
+        <v>-854</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>136</v>
+        <v>57</v>
       </c>
       <c r="B35" t="s">
-        <v>144</v>
+        <v>65</v>
       </c>
       <c r="C35">
         <v>2020</v>
       </c>
-      <c r="D35" t="s">
-        <v>168</v>
+      <c r="D35">
+        <v>57886</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>137</v>
+        <v>58</v>
       </c>
       <c r="B36" t="s">
-        <v>144</v>
+        <v>65</v>
       </c>
       <c r="C36">
         <v>2020</v>
       </c>
-      <c r="D36" t="s">
-        <v>169</v>
+      <c r="D36">
+        <v>9459</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>138</v>
+        <v>59</v>
       </c>
       <c r="B37" t="s">
-        <v>144</v>
+        <v>65</v>
       </c>
       <c r="C37">
         <v>2020</v>
       </c>
-      <c r="D37" t="s">
-        <v>170</v>
+      <c r="D37">
+        <v>48427</v>
       </c>
     </row>
   </sheetData>
@@ -2005,7 +1594,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>171</v>
+        <v>66</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
@@ -2013,13 +1602,13 @@
       <c r="C2">
         <v>2020</v>
       </c>
-      <c r="D2" t="s">
-        <v>174</v>
+      <c r="D2">
+        <v>25569</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>172</v>
+        <v>67</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
@@ -2027,13 +1616,13 @@
       <c r="C3">
         <v>2020</v>
       </c>
-      <c r="D3" t="s">
-        <v>175</v>
+      <c r="D3">
+        <v>2935</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>173</v>
+        <v>68</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
@@ -2041,13 +1630,13 @@
       <c r="C4">
         <v>2020</v>
       </c>
-      <c r="D4" t="s">
-        <v>176</v>
+      <c r="D4">
+        <v>1053</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
@@ -2055,13 +1644,13 @@
       <c r="C5">
         <v>2020</v>
       </c>
-      <c r="D5" t="s">
-        <v>177</v>
+      <c r="D5">
+        <v>29557</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>137</v>
+        <v>58</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
@@ -2069,13 +1658,13 @@
       <c r="C6">
         <v>2020</v>
       </c>
-      <c r="D6" t="s">
-        <v>178</v>
+      <c r="D6">
+        <v>25662</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>138</v>
+        <v>59</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
@@ -2083,8 +1672,8 @@
       <c r="C7">
         <v>2020</v>
       </c>
-      <c r="D7" t="s">
-        <v>179</v>
+      <c r="D7">
+        <v>3895</v>
       </c>
     </row>
   </sheetData>
@@ -2116,7 +1705,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>180</v>
+        <v>69</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
@@ -2124,13 +1713,13 @@
       <c r="C2">
         <v>2020</v>
       </c>
-      <c r="D2" t="s">
-        <v>181</v>
+      <c r="D2">
+        <v>150997</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>180</v>
+        <v>69</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
@@ -2138,8 +1727,8 @@
       <c r="C3">
         <v>2019</v>
       </c>
-      <c r="D3" t="s">
-        <v>181</v>
+      <c r="D3">
+        <v>150997</v>
       </c>
     </row>
   </sheetData>
@@ -2171,18 +1760,21 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>182</v>
+        <v>70</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
       <c r="C2">
         <v>2020</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>183</v>
+        <v>71</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
@@ -2190,13 +1782,13 @@
       <c r="C3">
         <v>2020</v>
       </c>
-      <c r="D3" t="s">
-        <v>200</v>
+      <c r="D3">
+        <v>29543</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>184</v>
+        <v>72</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
@@ -2204,13 +1796,13 @@
       <c r="C4">
         <v>2020</v>
       </c>
-      <c r="D4" t="s">
-        <v>201</v>
+      <c r="D4">
+        <v>-31598</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>185</v>
+        <v>73</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
@@ -2218,13 +1810,13 @@
       <c r="C5">
         <v>2020</v>
       </c>
-      <c r="D5" t="s">
-        <v>202</v>
+      <c r="D5">
+        <v>-2055</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>186</v>
+        <v>74</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
@@ -2232,13 +1824,13 @@
       <c r="C6">
         <v>2020</v>
       </c>
-      <c r="D6" t="s">
-        <v>203</v>
+      <c r="D6">
+        <v>2020</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>186</v>
+        <v>74</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
@@ -2246,24 +1838,27 @@
       <c r="C7">
         <v>2020</v>
       </c>
-      <c r="D7" t="s">
-        <v>6</v>
+      <c r="D7">
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>187</v>
+        <v>75</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
       </c>
       <c r="C8">
         <v>2020</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>188</v>
+        <v>76</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
@@ -2271,13 +1866,13 @@
       <c r="C9">
         <v>2020</v>
       </c>
-      <c r="D9" t="s">
-        <v>204</v>
+      <c r="D9">
+        <v>5922</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>189</v>
+        <v>77</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
@@ -2285,13 +1880,13 @@
       <c r="C10">
         <v>2020</v>
       </c>
-      <c r="D10" t="s">
-        <v>48</v>
+      <c r="D10">
+        <v>-8448</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>190</v>
+        <v>78</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
@@ -2299,13 +1894,13 @@
       <c r="C11">
         <v>2020</v>
       </c>
-      <c r="D11" t="s">
-        <v>205</v>
+      <c r="D11">
+        <v>-2526</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>191</v>
+        <v>79</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
@@ -2313,13 +1908,13 @@
       <c r="C12">
         <v>2020</v>
       </c>
-      <c r="D12" t="s">
-        <v>203</v>
+      <c r="D12">
+        <v>2020</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>191</v>
+        <v>79</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
@@ -2327,24 +1922,27 @@
       <c r="C13">
         <v>2020</v>
       </c>
-      <c r="D13" t="s">
-        <v>6</v>
+      <c r="D13">
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>192</v>
+        <v>80</v>
       </c>
       <c r="B14" t="s">
         <v>6</v>
       </c>
       <c r="C14">
         <v>2020</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>193</v>
+        <v>81</v>
       </c>
       <c r="B15" t="s">
         <v>6</v>
@@ -2352,13 +1950,13 @@
       <c r="C15">
         <v>2020</v>
       </c>
-      <c r="D15" t="s">
-        <v>206</v>
+      <c r="D15">
+        <v>325</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>194</v>
+        <v>82</v>
       </c>
       <c r="B16" t="s">
         <v>6</v>
@@ -2366,13 +1964,13 @@
       <c r="C16">
         <v>2020</v>
       </c>
-      <c r="D16" t="s">
-        <v>206</v>
+      <c r="D16">
+        <v>325</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>195</v>
+        <v>83</v>
       </c>
       <c r="B17" t="s">
         <v>6</v>
@@ -2380,13 +1978,13 @@
       <c r="C17">
         <v>2020</v>
       </c>
-      <c r="D17" t="s">
-        <v>203</v>
+      <c r="D17">
+        <v>2020</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>195</v>
+        <v>83</v>
       </c>
       <c r="B18" t="s">
         <v>6</v>
@@ -2394,24 +1992,27 @@
       <c r="C18">
         <v>2020</v>
       </c>
-      <c r="D18" t="s">
-        <v>6</v>
+      <c r="D18">
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>196</v>
+        <v>84</v>
       </c>
       <c r="B19" t="s">
         <v>6</v>
       </c>
       <c r="C19">
         <v>2020</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>197</v>
+        <v>85</v>
       </c>
       <c r="B20" t="s">
         <v>6</v>
@@ -2419,13 +2020,13 @@
       <c r="C20">
         <v>2020</v>
       </c>
-      <c r="D20" t="s">
-        <v>207</v>
+      <c r="D20">
+        <v>35790</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>198</v>
+        <v>86</v>
       </c>
       <c r="B21" t="s">
         <v>6</v>
@@ -2433,13 +2034,13 @@
       <c r="C21">
         <v>2020</v>
       </c>
-      <c r="D21" t="s">
-        <v>208</v>
+      <c r="D21">
+        <v>-40046</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>199</v>
+        <v>87</v>
       </c>
       <c r="B22" t="s">
         <v>6</v>
@@ -2447,24 +2048,27 @@
       <c r="C22">
         <v>2020</v>
       </c>
-      <c r="D22" t="s">
-        <v>209</v>
+      <c r="D22">
+        <v>-4256</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>182</v>
+        <v>70</v>
       </c>
       <c r="B23" t="s">
         <v>6</v>
       </c>
       <c r="C23">
         <v>2019</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>183</v>
+        <v>71</v>
       </c>
       <c r="B24" t="s">
         <v>6</v>
@@ -2472,13 +2076,13 @@
       <c r="C24">
         <v>2019</v>
       </c>
-      <c r="D24" t="s">
-        <v>210</v>
+      <c r="D24">
+        <v>41448</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>184</v>
+        <v>72</v>
       </c>
       <c r="B25" t="s">
         <v>6</v>
@@ -2486,13 +2090,13 @@
       <c r="C25">
         <v>2019</v>
       </c>
-      <c r="D25" t="s">
-        <v>211</v>
+      <c r="D25">
+        <v>-11905</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>185</v>
+        <v>73</v>
       </c>
       <c r="B26" t="s">
         <v>6</v>
@@ -2500,13 +2104,13 @@
       <c r="C26">
         <v>2019</v>
       </c>
-      <c r="D26" t="s">
-        <v>200</v>
+      <c r="D26">
+        <v>29543</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>186</v>
+        <v>74</v>
       </c>
       <c r="B27" t="s">
         <v>6</v>
@@ -2514,13 +2118,13 @@
       <c r="C27">
         <v>2019</v>
       </c>
-      <c r="D27" t="s">
-        <v>212</v>
+      <c r="D27">
+        <v>2019</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>186</v>
+        <v>74</v>
       </c>
       <c r="B28" t="s">
         <v>6</v>
@@ -2528,24 +2132,27 @@
       <c r="C28">
         <v>2019</v>
       </c>
-      <c r="D28" t="s">
-        <v>6</v>
+      <c r="D28">
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>187</v>
+        <v>75</v>
       </c>
       <c r="B29" t="s">
         <v>6</v>
       </c>
       <c r="C29">
         <v>2019</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>188</v>
+        <v>76</v>
       </c>
       <c r="B30" t="s">
         <v>6</v>
@@ -2553,13 +2160,13 @@
       <c r="C30">
         <v>2019</v>
       </c>
-      <c r="D30" t="s">
-        <v>213</v>
+      <c r="D30">
+        <v>3049</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>189</v>
+        <v>77</v>
       </c>
       <c r="B31" t="s">
         <v>6</v>
@@ -2567,13 +2174,13 @@
       <c r="C31">
         <v>2019</v>
       </c>
-      <c r="D31" t="s">
-        <v>51</v>
+      <c r="D31">
+        <v>2873</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>190</v>
+        <v>78</v>
       </c>
       <c r="B32" t="s">
         <v>6</v>
@@ -2581,13 +2188,13 @@
       <c r="C32">
         <v>2019</v>
       </c>
-      <c r="D32" t="s">
-        <v>204</v>
+      <c r="D32">
+        <v>5922</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>191</v>
+        <v>79</v>
       </c>
       <c r="B33" t="s">
         <v>6</v>
@@ -2595,13 +2202,13 @@
       <c r="C33">
         <v>2019</v>
       </c>
-      <c r="D33" t="s">
-        <v>212</v>
+      <c r="D33">
+        <v>2019</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>191</v>
+        <v>79</v>
       </c>
       <c r="B34" t="s">
         <v>6</v>
@@ -2609,24 +2216,27 @@
       <c r="C34">
         <v>2019</v>
       </c>
-      <c r="D34" t="s">
-        <v>6</v>
+      <c r="D34">
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>192</v>
+        <v>80</v>
       </c>
       <c r="B35" t="s">
         <v>6</v>
       </c>
       <c r="C35">
         <v>2019</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>193</v>
+        <v>81</v>
       </c>
       <c r="B36" t="s">
         <v>6</v>
@@ -2634,13 +2244,13 @@
       <c r="C36">
         <v>2019</v>
       </c>
-      <c r="D36" t="s">
-        <v>206</v>
+      <c r="D36">
+        <v>325</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>194</v>
+        <v>82</v>
       </c>
       <c r="B37" t="s">
         <v>6</v>
@@ -2648,13 +2258,13 @@
       <c r="C37">
         <v>2019</v>
       </c>
-      <c r="D37" t="s">
-        <v>206</v>
+      <c r="D37">
+        <v>325</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>195</v>
+        <v>83</v>
       </c>
       <c r="B38" t="s">
         <v>6</v>
@@ -2662,13 +2272,13 @@
       <c r="C38">
         <v>2019</v>
       </c>
-      <c r="D38" t="s">
-        <v>212</v>
+      <c r="D38">
+        <v>2019</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>195</v>
+        <v>83</v>
       </c>
       <c r="B39" t="s">
         <v>6</v>
@@ -2676,24 +2286,27 @@
       <c r="C39">
         <v>2019</v>
       </c>
-      <c r="D39" t="s">
-        <v>6</v>
+      <c r="D39">
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>196</v>
+        <v>84</v>
       </c>
       <c r="B40" t="s">
         <v>6</v>
       </c>
       <c r="C40">
         <v>2019</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>197</v>
+        <v>85</v>
       </c>
       <c r="B41" t="s">
         <v>6</v>
@@ -2701,13 +2314,13 @@
       <c r="C41">
         <v>2019</v>
       </c>
-      <c r="D41" t="s">
-        <v>214</v>
+      <c r="D41">
+        <v>44822</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>198</v>
+        <v>86</v>
       </c>
       <c r="B42" t="s">
         <v>6</v>
@@ -2715,13 +2328,13 @@
       <c r="C42">
         <v>2019</v>
       </c>
-      <c r="D42" t="s">
-        <v>215</v>
+      <c r="D42">
+        <v>-9032</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>199</v>
+        <v>87</v>
       </c>
       <c r="B43" t="s">
         <v>6</v>
@@ -2729,8 +2342,8 @@
       <c r="C43">
         <v>2019</v>
       </c>
-      <c r="D43" t="s">
-        <v>207</v>
+      <c r="D43">
+        <v>35790</v>
       </c>
     </row>
   </sheetData>
@@ -2762,18 +2375,21 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>216</v>
+        <v>88</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
       <c r="C2">
         <v>2020</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>217</v>
+        <v>89</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
@@ -2781,13 +2397,13 @@
       <c r="C3">
         <v>2020</v>
       </c>
-      <c r="D3" t="s">
-        <v>226</v>
+      <c r="D3">
+        <v>214911</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>218</v>
+        <v>90</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
@@ -2795,24 +2411,27 @@
       <c r="C4">
         <v>2020</v>
       </c>
-      <c r="D4" t="s">
-        <v>226</v>
+      <c r="D4">
+        <v>214911</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>219</v>
+        <v>91</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
       </c>
       <c r="C5">
         <v>2020</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>220</v>
+        <v>92</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
@@ -2820,13 +2439,13 @@
       <c r="C6">
         <v>2020</v>
       </c>
-      <c r="D6" t="s">
-        <v>227</v>
+      <c r="D6">
+        <v>190814</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>221</v>
+        <v>93</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
@@ -2834,13 +2453,13 @@
       <c r="C7">
         <v>2020</v>
       </c>
-      <c r="D7" t="s">
-        <v>228</v>
+      <c r="D7">
+        <v>24097</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>222</v>
+        <v>94</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
@@ -2848,24 +2467,27 @@
       <c r="C8">
         <v>2020</v>
       </c>
-      <c r="D8" t="s">
-        <v>226</v>
+      <c r="D8">
+        <v>214911</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>223</v>
+        <v>95</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
       </c>
       <c r="C9">
         <v>2020</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>224</v>
+        <v>96</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
@@ -2873,13 +2495,13 @@
       <c r="C10">
         <v>2020</v>
       </c>
-      <c r="D10" t="s">
-        <v>226</v>
+      <c r="D10">
+        <v>214911</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>225</v>
+        <v>97</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
@@ -2887,24 +2509,27 @@
       <c r="C11">
         <v>2020</v>
       </c>
-      <c r="D11" t="s">
-        <v>226</v>
+      <c r="D11">
+        <v>214911</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>216</v>
+        <v>88</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
       </c>
       <c r="C12">
         <v>2019</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>217</v>
+        <v>89</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
@@ -2912,13 +2537,13 @@
       <c r="C13">
         <v>2019</v>
       </c>
-      <c r="D13" t="s">
-        <v>229</v>
+      <c r="D13">
+        <v>229785</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>218</v>
+        <v>90</v>
       </c>
       <c r="B14" t="s">
         <v>6</v>
@@ -2926,24 +2551,27 @@
       <c r="C14">
         <v>2019</v>
       </c>
-      <c r="D14" t="s">
-        <v>229</v>
+      <c r="D14">
+        <v>229785</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>219</v>
+        <v>91</v>
       </c>
       <c r="B15" t="s">
         <v>6</v>
       </c>
       <c r="C15">
         <v>2019</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>220</v>
+        <v>92</v>
       </c>
       <c r="B16" t="s">
         <v>6</v>
@@ -2951,13 +2579,13 @@
       <c r="C16">
         <v>2019</v>
       </c>
-      <c r="D16" t="s">
-        <v>230</v>
+      <c r="D16">
+        <v>197789</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>221</v>
+        <v>93</v>
       </c>
       <c r="B17" t="s">
         <v>6</v>
@@ -2965,13 +2593,13 @@
       <c r="C17">
         <v>2019</v>
       </c>
-      <c r="D17" t="s">
-        <v>231</v>
+      <c r="D17">
+        <v>31996</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>222</v>
+        <v>94</v>
       </c>
       <c r="B18" t="s">
         <v>6</v>
@@ -2979,24 +2607,27 @@
       <c r="C18">
         <v>2019</v>
       </c>
-      <c r="D18" t="s">
-        <v>229</v>
+      <c r="D18">
+        <v>229785</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>223</v>
+        <v>95</v>
       </c>
       <c r="B19" t="s">
         <v>6</v>
       </c>
       <c r="C19">
         <v>2019</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>224</v>
+        <v>96</v>
       </c>
       <c r="B20" t="s">
         <v>6</v>
@@ -3004,13 +2635,13 @@
       <c r="C20">
         <v>2019</v>
       </c>
-      <c r="D20" t="s">
-        <v>229</v>
+      <c r="D20">
+        <v>229785</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>225</v>
+        <v>97</v>
       </c>
       <c r="B21" t="s">
         <v>6</v>
@@ -3018,8 +2649,8 @@
       <c r="C21">
         <v>2019</v>
       </c>
-      <c r="D21" t="s">
-        <v>229</v>
+      <c r="D21">
+        <v>229785</v>
       </c>
     </row>
   </sheetData>
@@ -3051,7 +2682,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>232</v>
+        <v>98</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
@@ -3059,13 +2690,13 @@
       <c r="C2">
         <v>2020</v>
       </c>
-      <c r="D2" t="s">
-        <v>233</v>
+      <c r="D2">
+        <v>775</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>232</v>
+        <v>98</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
@@ -3073,8 +2704,8 @@
       <c r="C3">
         <v>2019</v>
       </c>
-      <c r="D3" t="s">
-        <v>234</v>
+      <c r="D3">
+        <v>780</v>
       </c>
     </row>
   </sheetData>
@@ -3106,7 +2737,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>235</v>
+        <v>99</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
@@ -3114,35 +2745,41 @@
       <c r="C2">
         <v>2020</v>
       </c>
-      <c r="D2" t="s">
-        <v>239</v>
+      <c r="D2">
+        <v>13054</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>236</v>
+        <v>100</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
       </c>
       <c r="C3">
         <v>2020</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>237</v>
+        <v>101</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
       </c>
       <c r="C4">
         <v>2020</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>238</v>
+        <v>102</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
@@ -3150,13 +2787,13 @@
       <c r="C5">
         <v>2020</v>
       </c>
-      <c r="D5" t="s">
-        <v>240</v>
+      <c r="D5">
+        <v>577</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
@@ -3164,13 +2801,13 @@
       <c r="C6">
         <v>2020</v>
       </c>
-      <c r="D6" t="s">
-        <v>241</v>
+      <c r="D6">
+        <v>13631</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>235</v>
+        <v>99</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
@@ -3178,13 +2815,13 @@
       <c r="C7">
         <v>2019</v>
       </c>
-      <c r="D7" t="s">
-        <v>242</v>
+      <c r="D7">
+        <v>5350</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>236</v>
+        <v>100</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
@@ -3192,13 +2829,13 @@
       <c r="C8">
         <v>2019</v>
       </c>
-      <c r="D8" t="s">
-        <v>243</v>
+      <c r="D8">
+        <v>4202</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>237</v>
+        <v>101</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
@@ -3206,13 +2843,13 @@
       <c r="C9">
         <v>2019</v>
       </c>
-      <c r="D9" t="s">
-        <v>244</v>
+      <c r="D9">
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>238</v>
+        <v>102</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
@@ -3220,13 +2857,13 @@
       <c r="C10">
         <v>2019</v>
       </c>
-      <c r="D10" t="s">
-        <v>245</v>
+      <c r="D10">
+        <v>497</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
@@ -3234,8 +2871,8 @@
       <c r="C11">
         <v>2019</v>
       </c>
-      <c r="D11" t="s">
-        <v>246</v>
+      <c r="D11">
+        <v>10144</v>
       </c>
     </row>
   </sheetData>
@@ -3267,7 +2904,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>247</v>
+        <v>103</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
@@ -3275,13 +2912,13 @@
       <c r="C2">
         <v>2020</v>
       </c>
-      <c r="D2" t="s">
-        <v>248</v>
+      <c r="D2">
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>247</v>
+        <v>103</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
@@ -3289,8 +2926,8 @@
       <c r="C3">
         <v>2019</v>
       </c>
-      <c r="D3" t="s">
-        <v>249</v>
+      <c r="D3">
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -3322,7 +2959,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>250</v>
+        <v>104</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
@@ -3330,13 +2967,13 @@
       <c r="C2">
         <v>2020</v>
       </c>
-      <c r="D2" t="s">
-        <v>252</v>
+      <c r="D2">
+        <v>-203</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>251</v>
+        <v>105</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
@@ -3344,13 +2981,13 @@
       <c r="C3">
         <v>2020</v>
       </c>
-      <c r="D3" t="s">
-        <v>158</v>
+      <c r="D3">
+        <v>-336</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
@@ -3358,13 +2995,13 @@
       <c r="C4">
         <v>2020</v>
       </c>
-      <c r="D4" t="s">
-        <v>253</v>
+      <c r="D4">
+        <v>-539</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>250</v>
+        <v>104</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
@@ -3372,13 +3009,13 @@
       <c r="C5">
         <v>2019</v>
       </c>
-      <c r="D5" t="s">
-        <v>254</v>
+      <c r="D5">
+        <v>-303</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>251</v>
+        <v>105</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
@@ -3386,13 +3023,13 @@
       <c r="C6">
         <v>2019</v>
       </c>
-      <c r="D6" t="s">
-        <v>255</v>
+      <c r="D6">
+        <v>-315</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
@@ -3400,8 +3037,8 @@
       <c r="C7">
         <v>2019</v>
       </c>
-      <c r="D7" t="s">
-        <v>256</v>
+      <c r="D7">
+        <v>-618</v>
       </c>
     </row>
   </sheetData>
@@ -3433,7 +3070,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
@@ -3441,13 +3078,13 @@
       <c r="C2">
         <v>2020</v>
       </c>
-      <c r="D2" t="s">
-        <v>12</v>
+      <c r="D2">
+        <v>1697</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
@@ -3455,13 +3092,13 @@
       <c r="C3">
         <v>2020</v>
       </c>
-      <c r="D3" t="s">
-        <v>13</v>
+      <c r="D3">
+        <v>11927</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
@@ -3469,13 +3106,13 @@
       <c r="C4">
         <v>2020</v>
       </c>
-      <c r="D4" t="s">
-        <v>14</v>
+      <c r="D4">
+        <v>13624</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
@@ -3483,13 +3120,13 @@
       <c r="C5">
         <v>2019</v>
       </c>
-      <c r="D5" t="s">
-        <v>15</v>
+      <c r="D5">
+        <v>1390</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
@@ -3497,13 +3134,13 @@
       <c r="C6">
         <v>2019</v>
       </c>
-      <c r="D6" t="s">
-        <v>16</v>
+      <c r="D6">
+        <v>10609</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
@@ -3511,8 +3148,8 @@
       <c r="C7">
         <v>2019</v>
       </c>
-      <c r="D7" t="s">
-        <v>17</v>
+      <c r="D7">
+        <v>11999</v>
       </c>
     </row>
   </sheetData>
@@ -3544,7 +3181,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
@@ -3552,13 +3189,13 @@
       <c r="C2">
         <v>2020</v>
       </c>
-      <c r="D2" t="s">
-        <v>20</v>
+      <c r="D2">
+        <v>18547</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
@@ -3566,13 +3203,13 @@
       <c r="C3">
         <v>2020</v>
       </c>
-      <c r="D3" t="s">
-        <v>21</v>
+      <c r="D3">
+        <v>8651</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
@@ -3580,13 +3217,13 @@
       <c r="C4">
         <v>2020</v>
       </c>
-      <c r="D4" t="s">
-        <v>22</v>
+      <c r="D4">
+        <v>27198</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
@@ -3594,13 +3231,13 @@
       <c r="C5">
         <v>2019</v>
       </c>
-      <c r="D5" t="s">
-        <v>23</v>
+      <c r="D5">
+        <v>19816</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
@@ -3608,13 +3245,13 @@
       <c r="C6">
         <v>2019</v>
       </c>
-      <c r="D6" t="s">
-        <v>24</v>
+      <c r="D6">
+        <v>7137</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
@@ -3622,8 +3259,8 @@
       <c r="C7">
         <v>2019</v>
       </c>
-      <c r="D7" t="s">
-        <v>25</v>
+      <c r="D7">
+        <v>26953</v>
       </c>
     </row>
   </sheetData>
@@ -3655,84 +3292,105 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
       <c r="C2">
         <v>2020</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
       </c>
       <c r="C3">
         <v>2020</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
       </c>
       <c r="C4">
         <v>2020</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
       </c>
       <c r="C5">
         <v>2020</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
       </c>
       <c r="C6">
         <v>2020</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
       </c>
       <c r="C7">
         <v>2020</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
       </c>
       <c r="C8">
         <v>2019</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
@@ -3740,13 +3398,13 @@
       <c r="C9">
         <v>2019</v>
       </c>
-      <c r="D9" t="s">
-        <v>32</v>
+      <c r="D9">
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
@@ -3754,13 +3412,13 @@
       <c r="C10">
         <v>2019</v>
       </c>
-      <c r="D10" t="s">
-        <v>33</v>
+      <c r="D10">
+        <v>29702</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
@@ -3768,24 +3426,27 @@
       <c r="C11">
         <v>2019</v>
       </c>
-      <c r="D11" t="s">
-        <v>34</v>
+      <c r="D11">
+        <v>29753</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
       </c>
       <c r="C12">
         <v>2019</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
@@ -3793,8 +3454,8 @@
       <c r="C13">
         <v>2019</v>
       </c>
-      <c r="D13" t="s">
-        <v>35</v>
+      <c r="D13">
+        <v>12453</v>
       </c>
     </row>
   </sheetData>
@@ -3826,102 +3487,114 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="C2">
         <v>2020</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="C3">
         <v>2020</v>
       </c>
-      <c r="D3" t="s">
-        <v>40</v>
+      <c r="D3">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="C4">
         <v>2019</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="C5">
         <v>2019</v>
       </c>
-      <c r="D5" t="s">
-        <v>40</v>
+      <c r="D5">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="C6">
         <v>2020</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="C7">
         <v>2020</v>
       </c>
-      <c r="D7" t="s">
-        <v>41</v>
+      <c r="D7">
+        <v>47672</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="C8">
         <v>2019</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="C9">
         <v>2019</v>
       </c>
-      <c r="D9" t="s">
-        <v>42</v>
+      <c r="D9">
+        <v>54535</v>
       </c>
     </row>
   </sheetData>
@@ -3953,7 +3626,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
@@ -3961,13 +3634,13 @@
       <c r="C2">
         <v>2020</v>
       </c>
-      <c r="D2" t="s">
-        <v>42</v>
+      <c r="D2">
+        <v>54535</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
@@ -3975,13 +3648,13 @@
       <c r="C3">
         <v>2020</v>
       </c>
-      <c r="D3" t="s">
-        <v>47</v>
+      <c r="D3">
+        <v>1586</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
@@ -3989,13 +3662,13 @@
       <c r="C4">
         <v>2020</v>
       </c>
-      <c r="D4" t="s">
-        <v>48</v>
+      <c r="D4">
+        <v>-8448</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
@@ -4003,13 +3676,13 @@
       <c r="C5">
         <v>2020</v>
       </c>
-      <c r="D5" t="s">
-        <v>41</v>
+      <c r="D5">
+        <v>47672</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
@@ -4017,13 +3690,13 @@
       <c r="C6">
         <v>2019</v>
       </c>
-      <c r="D6" t="s">
-        <v>49</v>
+      <c r="D6">
+        <v>59249</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
@@ -4031,13 +3704,13 @@
       <c r="C7">
         <v>2019</v>
       </c>
-      <c r="D7" t="s">
-        <v>50</v>
+      <c r="D7">
+        <v>-7587</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
@@ -4045,13 +3718,13 @@
       <c r="C8">
         <v>2019</v>
       </c>
-      <c r="D8" t="s">
-        <v>51</v>
+      <c r="D8">
+        <v>2873</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
@@ -4059,8 +3732,8 @@
       <c r="C9">
         <v>2019</v>
       </c>
-      <c r="D9" t="s">
-        <v>42</v>
+      <c r="D9">
+        <v>54535</v>
       </c>
     </row>
   </sheetData>
@@ -4092,7 +3765,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
@@ -4100,13 +3773,13 @@
       <c r="C2">
         <v>2020</v>
       </c>
-      <c r="D2" t="s">
-        <v>41</v>
+      <c r="D2">
+        <v>47672</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
@@ -4114,8 +3787,8 @@
       <c r="C3">
         <v>2019</v>
       </c>
-      <c r="D3" t="s">
-        <v>42</v>
+      <c r="D3">
+        <v>54535</v>
       </c>
     </row>
   </sheetData>
@@ -4147,974 +3820,1052 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="C2">
         <v>2020</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="C3">
         <v>2020</v>
       </c>
-      <c r="D3" t="s">
-        <v>73</v>
+      <c r="D3">
+        <v>90430</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="C4">
         <v>2020</v>
       </c>
-      <c r="D4" t="s">
-        <v>74</v>
+      <c r="D4">
+        <v>376</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="B5" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="C5">
         <v>2020</v>
       </c>
-      <c r="D5" t="s">
-        <v>75</v>
+      <c r="D5">
+        <v>-149</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="B6" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="C6">
         <v>2020</v>
       </c>
-      <c r="D6" t="s">
-        <v>76</v>
+      <c r="D6">
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="B7" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="C7">
         <v>2020</v>
       </c>
-      <c r="D7" t="s">
-        <v>77</v>
+      <c r="D7">
+        <v>90731</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="B8" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="C8">
         <v>2020</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="B9" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="C9">
         <v>2020</v>
       </c>
-      <c r="D9" t="s">
-        <v>78</v>
+      <c r="D9">
+        <v>90235</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="B10" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="C10">
         <v>2020</v>
       </c>
-      <c r="D10" t="s">
-        <v>79</v>
+      <c r="D10">
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="B11" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="C11">
         <v>2020</v>
       </c>
-      <c r="D11" t="s">
-        <v>80</v>
+      <c r="D11">
+        <v>351</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="B12" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="C12">
         <v>2020</v>
       </c>
-      <c r="D12" t="s">
-        <v>81</v>
+      <c r="D12">
+        <v>-154</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="B13" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="C13">
         <v>2020</v>
       </c>
-      <c r="D13" t="s">
-        <v>82</v>
+      <c r="D13">
+        <v>90489</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="B14" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="C14">
         <v>2020</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="B15" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="C15">
         <v>2020</v>
       </c>
-      <c r="D15" t="s">
-        <v>83</v>
+      <c r="D15">
+        <v>242</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="B16" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="C16">
         <v>2019</v>
       </c>
-      <c r="D16" t="s">
-        <v>84</v>
+      <c r="D16">
+        <v>195</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="B17" t="s">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="C17">
         <v>2020</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="B18" t="s">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="C18">
         <v>2020</v>
       </c>
-      <c r="D18" t="s">
-        <v>85</v>
+      <c r="D18">
+        <v>314181</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="B19" t="s">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="C19">
         <v>2020</v>
       </c>
-      <c r="D19" t="s">
-        <v>86</v>
+      <c r="D19">
+        <v>5232</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="B20" t="s">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="C20">
         <v>2020</v>
       </c>
-      <c r="D20" t="s">
-        <v>87</v>
+      <c r="D20">
+        <v>-1122</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="B21" t="s">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="C21">
         <v>2020</v>
       </c>
-      <c r="D21" t="s">
-        <v>88</v>
+      <c r="D21">
+        <v>-74</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="B22" t="s">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="C22">
         <v>2020</v>
       </c>
-      <c r="D22" t="s">
-        <v>89</v>
+      <c r="D22">
+        <v>318217</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="B23" t="s">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="C23">
         <v>2020</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="B24" t="s">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="C24">
         <v>2020</v>
       </c>
-      <c r="D24" t="s">
-        <v>90</v>
+      <c r="D24">
+        <v>312388</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="B25" t="s">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="C25">
         <v>2020</v>
       </c>
-      <c r="D25" t="s">
-        <v>91</v>
+      <c r="D25">
+        <v>827</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="B26" t="s">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="C26">
         <v>2020</v>
       </c>
-      <c r="D26" t="s">
-        <v>92</v>
+      <c r="D26">
+        <v>4618</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="B27" t="s">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="C27">
         <v>2020</v>
       </c>
-      <c r="D27" t="s">
-        <v>93</v>
+      <c r="D27">
+        <v>-1182</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="B28" t="s">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="C28">
         <v>2020</v>
       </c>
-      <c r="D28" t="s">
-        <v>94</v>
+      <c r="D28">
+        <v>316651</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="B29" t="s">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="C29">
         <v>2020</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="B30" t="s">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="C30">
         <v>2020</v>
       </c>
-      <c r="D30" t="s">
-        <v>95</v>
+      <c r="D30">
+        <v>1566</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="B31" t="s">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="C31">
         <v>2019</v>
       </c>
-      <c r="D31" t="s">
-        <v>96</v>
+      <c r="D31">
+        <v>1793</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="B32" t="s">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="C32">
         <v>2020</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="B33" t="s">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="C33">
         <v>2020</v>
       </c>
-      <c r="D33" t="s">
-        <v>97</v>
+      <c r="D33">
+        <v>1628</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="B34" t="s">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="C34">
         <v>2020</v>
       </c>
-      <c r="D34" t="s">
-        <v>98</v>
+      <c r="D34">
+        <v>34643</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="B35" t="s">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="C35">
         <v>2020</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="B36" t="s">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="C36">
         <v>2020</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="B37" t="s">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="C37">
         <v>2020</v>
       </c>
-      <c r="D37" t="s">
-        <v>99</v>
+      <c r="D37">
+        <v>36271</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="B38" t="s">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="C38">
         <v>2020</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="B39" t="s">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="C39">
         <v>2020</v>
       </c>
-      <c r="D39" t="s">
-        <v>97</v>
+      <c r="D39">
+        <v>1628</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="B40" t="s">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="C40">
         <v>2020</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="B41" t="s">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="C41">
         <v>2020</v>
       </c>
-      <c r="D41" t="s">
-        <v>100</v>
+      <c r="D41">
+        <v>20598</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="B42" t="s">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="C42">
         <v>2020</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="B43" t="s">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="C43">
         <v>2020</v>
       </c>
-      <c r="D43" t="s">
-        <v>101</v>
+      <c r="D43">
+        <v>22226</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="B44" t="s">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="C44">
         <v>2020</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="B45" t="s">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="C45">
         <v>2020</v>
       </c>
-      <c r="D45" t="s">
-        <v>102</v>
+      <c r="D45">
+        <v>14045</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="B46" t="s">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="C46">
         <v>2019</v>
       </c>
-      <c r="D46" t="s">
-        <v>103</v>
+      <c r="D46">
+        <v>1743</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="B47" t="s">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="C47">
         <v>2020</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="B48" t="s">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="C48">
         <v>2020</v>
       </c>
-      <c r="D48" t="s">
-        <v>104</v>
+      <c r="D48">
+        <v>2538</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="B49" t="s">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="C49">
         <v>2020</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="B50" t="s">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="C50">
         <v>2020</v>
       </c>
-      <c r="D50" t="s">
-        <v>105</v>
+      <c r="D50">
+        <v>-65</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="B51" t="s">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="C51">
         <v>2020</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="B52" t="s">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="C52">
         <v>2020</v>
       </c>
-      <c r="D52" t="s">
-        <v>106</v>
+      <c r="D52">
+        <v>2473</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="B53" t="s">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="C53">
         <v>2020</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="B54" t="s">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="C54">
         <v>2020</v>
       </c>
-      <c r="D54" t="s">
-        <v>107</v>
+      <c r="D54">
+        <v>795</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="B55" t="s">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="C55">
         <v>2020</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="B56" t="s">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="C56">
         <v>2020</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="B57" t="s">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="C57">
         <v>2020</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" t="s">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="B58" t="s">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="C58">
         <v>2020</v>
       </c>
-      <c r="D58" t="s">
-        <v>107</v>
+      <c r="D58">
+        <v>795</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="B59" t="s">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="C59">
         <v>2020</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="B60" t="s">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="C60">
         <v>2020</v>
       </c>
-      <c r="D60" t="s">
-        <v>108</v>
+      <c r="D60">
+        <v>1678</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="B61" t="s">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="C61">
         <v>2019</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" t="s">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="B62" t="s">
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="C62">
         <v>2020</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="B63" t="s">
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="C63">
         <v>2020</v>
       </c>
-      <c r="D63" t="s">
-        <v>109</v>
+      <c r="D63">
+        <v>408777</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="B64" t="s">
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="C64">
         <v>2020</v>
       </c>
-      <c r="D64" t="s">
-        <v>110</v>
+      <c r="D64">
+        <v>40251</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="B65" t="s">
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="C65">
         <v>2020</v>
       </c>
-      <c r="D65" t="s">
-        <v>111</v>
+      <c r="D65">
+        <v>-1336</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" t="s">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="B66" t="s">
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="C66">
         <v>2020</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="B67" t="s">
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="C67">
         <v>2020</v>
       </c>
-      <c r="D67" t="s">
-        <v>112</v>
+      <c r="D67">
+        <v>447692</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" t="s">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="B68" t="s">
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="C68">
         <v>2020</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="B69" t="s">
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="C69">
         <v>2020</v>
       </c>
-      <c r="D69" t="s">
-        <v>113</v>
+      <c r="D69">
+        <v>405046</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" t="s">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="B70" t="s">
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="C70">
         <v>2020</v>
       </c>
-      <c r="D70" t="s">
-        <v>114</v>
+      <c r="D70">
+        <v>884</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" t="s">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="B71" t="s">
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="C71">
         <v>2020</v>
       </c>
-      <c r="D71" t="s">
-        <v>115</v>
+      <c r="D71">
+        <v>25567</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="B72" t="s">
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="C72">
         <v>2020</v>
       </c>
-      <c r="D72" t="s">
-        <v>111</v>
+      <c r="D72">
+        <v>-1336</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" t="s">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="B73" t="s">
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="C73">
         <v>2020</v>
       </c>
-      <c r="D73" t="s">
-        <v>116</v>
+      <c r="D73">
+        <v>430161</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="B74" t="s">
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="C74">
         <v>2020</v>
+      </c>
+      <c r="D74">
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="B75" t="s">
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="C75">
         <v>2020</v>
       </c>
-      <c r="D75" t="s">
-        <v>117</v>
+      <c r="D75">
+        <v>17531</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="B76" t="s">
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="C76">
         <v>2019</v>
       </c>
-      <c r="D76" t="s">
-        <v>118</v>
+      <c r="D76">
+        <v>3731</v>
       </c>
     </row>
   </sheetData>
@@ -5146,18 +4897,21 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>119</v>
+        <v>47</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
       <c r="C2">
         <v>2020</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>119</v>
+        <v>47</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
@@ -5165,8 +4919,8 @@
       <c r="C3">
         <v>2019</v>
       </c>
-      <c r="D3" t="s">
-        <v>120</v>
+      <c r="D3">
+        <v>4000</v>
       </c>
     </row>
   </sheetData>
